--- a/res/page/月票管理/流水记录/MonthTicketChargeWaterNumPage.xlsx
+++ b/res/page/月票管理/流水记录/MonthTicketChargeWaterNumPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>别名</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>//div[@class='toast-wrapper']</t>
+  </si>
+  <si>
+    <t>选择搜索类型</t>
+  </si>
+  <si>
+    <t>//div[@class='input-group-addon']//input[@placeholder='请选择']</t>
+  </si>
+  <si>
+    <t>月票名称搜索框</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='月票名称']</t>
   </si>
 </sst>
 </file>
@@ -120,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,16 +152,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,38 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,27 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -238,47 +272,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,32 +520,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,8 +558,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +582,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,13 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,137 +637,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +778,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -840,7 +858,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1119,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1276,7 +1294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:3">
+    <row r="14" ht="26" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:3">
+    <row r="15" ht="26" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1296,6 +1314,39 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
